--- a/Docs/Orginal/Berperdata.xlsx
+++ b/Docs/Orginal/Berperdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berfre\Desktop\Kontroll berper dvd 1.7\Docs\Orginal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berfre\Desktop\kod\KB-Controller\Docs\Orginal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,12 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Avvikelser" sheetId="1" r:id="rId1"/>
-    <sheet name="Avvikelser2" sheetId="2" r:id="rId2"/>
-    <sheet name="Alla Berper" sheetId="3" r:id="rId3"/>
-    <sheet name="Filer som ej bedöms vara berper" sheetId="4" r:id="rId4"/>
-    <sheet name="Excelfiler som ej kunde öppnas" sheetId="5" r:id="rId5"/>
-    <sheet name="För stora excelfiler" sheetId="6" r:id="rId6"/>
+    <sheet name="Alla Berper" sheetId="3" r:id="rId2"/>
+    <sheet name="Filer som ej bedöms vara berper" sheetId="4" r:id="rId3"/>
+    <sheet name="Excelfiler som ej kunde öppnas" sheetId="5" r:id="rId4"/>
+    <sheet name="För stora excelfiler" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Avvikelser!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>KST</t>
   </si>
@@ -74,21 +76,6 @@
   </si>
   <si>
     <t>KOMMENTAR FRÅN BERPER</t>
-  </si>
-  <si>
-    <t>PERIODISERINGSKONTO</t>
-  </si>
-  <si>
-    <t>BELOPP PERIODISERING</t>
-  </si>
-  <si>
-    <t>BERPER UPPRÄTTAD AV</t>
-  </si>
-  <si>
-    <t>INT KOST</t>
-  </si>
-  <si>
-    <t>KONTROLL KOMMENTAR</t>
   </si>
   <si>
     <t>LÄNK</t>
@@ -482,12 +469,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
@@ -534,80 +522,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -634,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -643,7 +563,28 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -685,28 +626,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="255.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
